--- a/ValidationData/TP/additional/excel/positive_unknown_fixed.xlsx
+++ b/ValidationData/TP/additional/excel/positive_unknown_fixed.xlsx
@@ -1200,10 +1200,8 @@
       <c r="BN2" t="b">
         <v>0</v>
       </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO2" t="b">
+        <v>0</v>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
@@ -1288,7 +1286,7 @@
       </c>
       <c r="CQ2" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR2" t="b">
@@ -1582,10 +1580,8 @@
       <c r="BN3" t="b">
         <v>0</v>
       </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO3" t="b">
+        <v>0</v>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
@@ -1674,7 +1670,7 @@
       </c>
       <c r="CQ3" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR3" t="b">
@@ -1968,10 +1964,8 @@
       <c r="BN4" t="b">
         <v>0</v>
       </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO4" t="b">
+        <v>0</v>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
@@ -2066,7 +2060,7 @@
       </c>
       <c r="CQ4" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR4" t="b">
@@ -2336,10 +2330,8 @@
       <c r="BN5" t="b">
         <v>0</v>
       </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO5" t="b">
+        <v>0</v>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
@@ -2428,7 +2420,7 @@
       </c>
       <c r="CQ5" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR5" t="b">
@@ -2722,10 +2714,8 @@
       <c r="BN6" t="b">
         <v>0</v>
       </c>
-      <c r="BO6" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO6" t="b">
+        <v>0</v>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
@@ -2806,7 +2796,7 @@
       </c>
       <c r="CQ6" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR6" t="b">
@@ -3104,10 +3094,8 @@
       <c r="BN7" t="b">
         <v>0</v>
       </c>
-      <c r="BO7" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO7" t="b">
+        <v>0</v>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
@@ -3202,7 +3190,7 @@
       </c>
       <c r="CQ7" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR7" t="b">
@@ -3222,22 +3210,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sample_20078</t>
+          <t>Sample_9869</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sample_20079</t>
+          <t>Sample_9870</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sample_20080</t>
+          <t>Sample_9871</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ESES_Childhood onset EE_GDD,ESES_Childhood_onset_EE_GDD</t>
+          <t>孔脳症,孔脳症</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -3245,7 +3233,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8-89198703-A-T</t>
+          <t>16-4918905-G-A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3256,25 +3244,25 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>89198703</v>
+        <v>4918905</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MMP16</t>
+          <t>UBN1</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -3284,17 +3272,17 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>7162</t>
+          <t>12506</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>ENST00000286614</t>
+          <t>ENST00000396658</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>c.404+2T&gt;A</t>
+          <t>c.1181+1G&gt;A</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3305,12 +3293,12 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3/9</t>
+          <t>7/16</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -3320,12 +3308,12 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -3335,22 +3323,22 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>-71</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>-134</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AD8" t="n">
@@ -3363,32 +3351,32 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>-0.726</t>
+          <t>-0.824</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>8.183</t>
+          <t>8.182</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>7.457</t>
+          <t>7.358</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>ENSG00000156103.16_10</t>
+          <t>ENSG00000118900.15_15</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>0:0.019999999552965164</t>
+          <t>3:0.019999999552965164</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2:-0.8799999952316284</t>
+          <t>-1:-0.8399999737739563</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -3397,15 +3385,15 @@
         </is>
       </c>
       <c r="AM8" t="n">
-        <v>0.8799999952316284</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>ENST00000286614.11_6</t>
+          <t>ENST00000396658.8_6</t>
         </is>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -3464,7 +3452,7 @@
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 89198705, 'eEnd': 89198827, 'curt_Int': 3, 'curt_IntStart': 89180203, 'curt_IntEnd': 89198704, 'prev_Ex': 3, 'prev_ExStart': 89198705, 'prev_ExEnd': 89198827, 'next_Ex': 4, 'next_ExStart': 89179898, 'next_ExEnd': 89180202}</t>
+          <t>{'strand': '+', 'eStart': 4918834, 'eEnd': 4918904, 'curt_Ex': 7, 'curt_ExStart': 4918834, 'curt_ExEnd': 4918904, 'prev_Ex': 6, 'prev_ExStart': 4910665, 'prev_ExEnd': 4911103, 'next_Ex': 8, 'next_ExStart': 4920213, 'next_ExEnd': 4920342}</t>
         </is>
       </c>
       <c r="BB8" t="b">
@@ -3492,22 +3480,20 @@
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="n">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="BM8" t="n">
-        <v>1821</v>
+        <v>3402</v>
       </c>
       <c r="BN8" t="b">
         <v>0</v>
       </c>
-      <c r="BO8" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO8" t="b">
+        <v>0</v>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>Possibly_NMD</t>
+          <t>Exonic (Non-Canonical)</t>
         </is>
       </c>
       <c r="BQ8" t="b">
@@ -3523,24 +3509,24 @@
         <v>0</v>
       </c>
       <c r="BU8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>8 89198705 89198827</t>
+          <t>16 4918834 4918904</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="n">
-        <v>97.743703544</v>
+        <v>78.12877438700001</v>
       </c>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>s8</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
@@ -3554,21 +3540,21 @@
         </is>
       </c>
       <c r="CD8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>MMP16</t>
+          <t>UBN1</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>C8orf57|MMP-X2|MT-MMP2|MT-MMP3|MT3-MMP</t>
+          <t>VT|VT4</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>NM_005941.5</t>
+          <t>NM_001079514.3</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
@@ -3578,12 +3564,12 @@
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>7162</t>
+          <t>12506</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>602262</t>
+          <t>609771</t>
         </is>
       </c>
       <c r="CK8" t="n">
@@ -3594,11 +3580,11 @@
       <c r="CN8" t="inlineStr"/>
       <c r="CO8" t="inlineStr"/>
       <c r="CP8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR8" t="b">
@@ -3618,22 +3604,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sample_9869</t>
+          <t>Sample_372</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sample_9870</t>
+          <t>Sample_1377</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sample_9871</t>
+          <t>Sample_1376</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>孔脳症,孔脳症</t>
+          <t>Aicardi</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -3641,7 +3627,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16-4918905-G-A</t>
+          <t>20-35826897-T-G</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3652,25 +3638,25 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4918905</v>
+        <v>35826897</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>UBN1</t>
+          <t>RPN2</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -3680,17 +3666,17 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12506</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>ENST00000396658</t>
+          <t>ENST00000237530</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>c.1181+1G&gt;A</t>
+          <t>c.303+2T&gt;G</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3701,7 +3687,7 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>7/16</t>
+          <t>3/16</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -3716,12 +3702,12 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -3731,22 +3717,22 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-97</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>-134</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AD9" t="n">
@@ -3759,32 +3745,32 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>-0.824</t>
+          <t>2.385</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>8.182</t>
+          <t>7.647</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>7.358</t>
+          <t>10.033</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>ENSG00000118900.15_15</t>
+          <t>ENSG00000118705.18_10</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>3:0.019999999552965164</t>
+          <t>42:0.03999999910593033</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>-1:-0.8399999737739563</t>
+          <t>-2:-0.8700000047683716</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -3793,15 +3779,15 @@
         </is>
       </c>
       <c r="AM9" t="n">
-        <v>0.8399999737739563</v>
+        <v>0.8700000047683716</v>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>ENST00000396658.8_6</t>
+          <t>ENST00000237530.11_4</t>
         </is>
       </c>
       <c r="AO9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -3860,7 +3846,7 @@
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>{'strand': '+', 'eStart': 4918834, 'eEnd': 4918904, 'curt_Ex': 7, 'curt_ExStart': 4918834, 'curt_ExEnd': 4918904, 'prev_Ex': 6, 'prev_ExStart': 4910665, 'prev_ExEnd': 4911103, 'next_Ex': 8, 'next_ExStart': 4920213, 'next_ExEnd': 4920342}</t>
+          <t>{'strand': '+', 'eStart': 35826800, 'eEnd': 35826895, 'curt_Int': 3, 'curt_IntStart': 35826896, 'curt_IntEnd': 35827452, 'prev_Ex': 3, 'prev_ExStart': 35826800, 'prev_ExEnd': 35826895, 'next_Ex': 4, 'next_ExStart': 35827453, 'next_ExEnd': 35827628}</t>
         </is>
       </c>
       <c r="BB9" t="b">
@@ -3888,22 +3874,20 @@
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="BM9" t="n">
-        <v>3402</v>
+        <v>1893</v>
       </c>
       <c r="BN9" t="b">
         <v>0</v>
       </c>
-      <c r="BO9" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO9" t="b">
+        <v>0</v>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>Exonic (Non-Canonical)</t>
+          <t>Possibly_NMD</t>
         </is>
       </c>
       <c r="BQ9" t="b">
@@ -3919,24 +3903,24 @@
         <v>0</v>
       </c>
       <c r="BU9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>16 4918834 4918904</t>
+          <t>20 35826800 35826895</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr"/>
       <c r="BY9" t="n">
-        <v>78.12877438700001</v>
+        <v>88.748639032</v>
       </c>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
@@ -3954,17 +3938,17 @@
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>UBN1</t>
+          <t>RPN2</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>VT|VT4</t>
+          <t>RIBIIR|RPN-II|RPNII|SWP1</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>NM_001079514.3</t>
+          <t>NM_002951.5</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
@@ -3974,12 +3958,12 @@
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>12506</t>
+          <t>10382</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>609771</t>
+          <t>180490</t>
         </is>
       </c>
       <c r="CK9" t="n">
@@ -3994,7 +3978,7 @@
       </c>
       <c r="CQ9" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR9" t="b">
@@ -4014,22 +3998,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sample_372</t>
+          <t>Sample_20078</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sample_1377</t>
+          <t>Sample_20079</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sample_1376</t>
+          <t>Sample_20080</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aicardi</t>
+          <t>ESES_Childhood onset EE_GDD,ESES_Childhood_onset_EE_GDD</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -4037,7 +4021,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>20-35826897-T-G</t>
+          <t>8-89198703-A-T</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -4048,25 +4032,25 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35826897</v>
+        <v>89198703</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>RPN2</t>
+          <t>MMP16</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4076,17 +4060,17 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>10382</t>
+          <t>7162</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>ENST00000237530</t>
+          <t>ENST00000286614</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>c.303+2T&gt;G</t>
+          <t>c.404+2T&gt;A</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4097,12 +4081,12 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>3/16</t>
+          <t>3/9</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -4112,12 +4096,12 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -4127,22 +4111,22 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-97</t>
+          <t>124</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD10" t="n">
@@ -4155,32 +4139,32 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>2.385</t>
+          <t>-0.726</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>7.647</t>
+          <t>8.183</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>10.033</t>
+          <t>7.457</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>ENSG00000118705.18_10</t>
+          <t>ENSG00000156103.16_10</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>42:0.03999999910593033</t>
+          <t>0:0.019999999552965164</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>-2:-0.8700000047683716</t>
+          <t>2:-0.8799999952316284</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -4189,11 +4173,11 @@
         </is>
       </c>
       <c r="AM10" t="n">
-        <v>0.8700000047683716</v>
+        <v>0.8799999952316284</v>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>ENST00000237530.11_4</t>
+          <t>ENST00000286614.11_6</t>
         </is>
       </c>
       <c r="AO10" t="n">
@@ -4256,7 +4240,7 @@
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>{'strand': '+', 'eStart': 35826800, 'eEnd': 35826895, 'curt_Int': 3, 'curt_IntStart': 35826896, 'curt_IntEnd': 35827452, 'prev_Ex': 3, 'prev_ExStart': 35826800, 'prev_ExEnd': 35826895, 'next_Ex': 4, 'next_ExStart': 35827453, 'next_ExEnd': 35827628}</t>
+          <t>{'strand': '-', 'eStart': 89198705, 'eEnd': 89198827, 'curt_Int': 3, 'curt_IntStart': 89180203, 'curt_IntEnd': 89198704, 'prev_Ex': 3, 'prev_ExStart': 89198705, 'prev_ExEnd': 89198827, 'next_Ex': 4, 'next_ExStart': 89179898, 'next_ExEnd': 89180202}</t>
         </is>
       </c>
       <c r="BB10" t="b">
@@ -4284,18 +4268,16 @@
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="n">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="BM10" t="n">
-        <v>1893</v>
+        <v>1821</v>
       </c>
       <c r="BN10" t="b">
         <v>0</v>
       </c>
-      <c r="BO10" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO10" t="b">
+        <v>0</v>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
@@ -4322,17 +4304,17 @@
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>20 35826800 35826895</t>
+          <t>8 89198705 89198827</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr"/>
       <c r="BY10" t="n">
-        <v>88.748639032</v>
+        <v>97.743703544</v>
       </c>
       <c r="BZ10" t="inlineStr"/>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
@@ -4346,21 +4328,21 @@
         </is>
       </c>
       <c r="CD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>RPN2</t>
+          <t>MMP16</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>RIBIIR|RPN-II|RPNII|SWP1</t>
+          <t>C8orf57|MMP-X2|MT-MMP2|MT-MMP3|MT3-MMP</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>NM_002951.5</t>
+          <t>NM_005941.5</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
@@ -4370,12 +4352,12 @@
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>10382</t>
+          <t>7162</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>180490</t>
+          <t>602262</t>
         </is>
       </c>
       <c r="CK10" t="n">
@@ -4386,11 +4368,11 @@
       <c r="CN10" t="inlineStr"/>
       <c r="CO10" t="inlineStr"/>
       <c r="CP10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ10" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR10" t="b">
@@ -4688,10 +4670,8 @@
       <c r="BN11" t="b">
         <v>0</v>
       </c>
-      <c r="BO11" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO11" t="b">
+        <v>0</v>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
@@ -4786,7 +4766,7 @@
       </c>
       <c r="CQ11" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR11" t="b">
@@ -4806,22 +4786,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sample_12291</t>
+          <t>Sample_12988</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sample_12292</t>
+          <t>Sample_12990</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sample_12293</t>
+          <t>Sample_12991</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ASD</t>
+          <t>Autism+三角頭蓋</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -4829,7 +4809,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14-69988999-G-T</t>
+          <t>17-46134392-A-C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4840,25 +4820,25 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>69988999</v>
+        <v>46134392</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>PLEKHD1</t>
+          <t>NFE2L1</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4868,17 +4848,17 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>20148</t>
+          <t>7781</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>ENST00000322564</t>
+          <t>ENST00000362042</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>c.556-1G&gt;T</t>
+          <t>c.724-2A&gt;C</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -4889,7 +4869,7 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>6/12</t>
+          <t>3/5</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -4899,7 +4879,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -4909,32 +4889,32 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>-1880</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AD12" t="n">
@@ -4947,32 +4927,32 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1.088</t>
+          <t>-1.136</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>8.598</t>
+          <t>8.042</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>9.686</t>
+          <t>6.906</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>ENSG00000175985.10_7</t>
+          <t>ENSG00000082641.16_16</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>4:0.25</t>
+          <t>10:0.11999999731779099</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>1:-0.8700000047683716</t>
+          <t>2:-0.8399999737739563</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -4981,15 +4961,15 @@
         </is>
       </c>
       <c r="AM12" t="n">
-        <v>0.8700000047683716</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>ENST00000322564.9_3</t>
+          <t>ENST00000362042.8_6</t>
         </is>
       </c>
       <c r="AO12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
@@ -5048,17 +5028,17 @@
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>{'strand': '+', 'eStart': 69989000, 'eEnd': 69989094, 'curt_Int': 6, 'curt_IntStart': 69969597, 'curt_IntEnd': 69988999, 'prev_Ex': 6, 'prev_ExStart': 69969544, 'prev_ExEnd': 69969596, 'next_Ex': 7, 'next_ExStart': 69989000, 'next_ExEnd': 69989094}</t>
+          <t>{'strand': '+', 'eStart': 46134394, 'eEnd': 46134483, 'curt_Int': 3, 'curt_IntStart': 46133961, 'curt_IntEnd': 46134393, 'prev_Ex': 3, 'prev_ExStart': 46133748, 'prev_ExEnd': 46133960, 'next_Ex': 4, 'next_ExStart': 46134394, 'next_ExEnd': 46134483}</t>
         </is>
       </c>
       <c r="BB12" t="b">
         <v>0</v>
       </c>
       <c r="BC12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" t="b">
         <v>1</v>
@@ -5071,23 +5051,23 @@
           <t>One exon skipping</t>
         </is>
       </c>
-      <c r="BH12" t="inlineStr"/>
+      <c r="BH12" t="n">
+        <v>8</v>
+      </c>
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="BM12" t="n">
-        <v>1518</v>
+        <v>2316</v>
       </c>
       <c r="BN12" t="b">
         <v>0</v>
       </c>
-      <c r="BO12" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO12" t="b">
+        <v>1</v>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
@@ -5095,7 +5075,7 @@
         </is>
       </c>
       <c r="BQ12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR12" t="b">
         <v>0</v>
@@ -5107,24 +5087,30 @@
         <v>0</v>
       </c>
       <c r="BU12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="b">
         <v>1</v>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>14 69989000 69989094</t>
-        </is>
-      </c>
-      <c r="BX12" t="inlineStr"/>
+          <t>17 46134394 46134483</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>17 46134394 46134402</t>
+        </is>
+      </c>
       <c r="BY12" t="n">
-        <v>66.912083251</v>
-      </c>
-      <c r="BZ12" t="inlineStr"/>
+        <v>84.619342839</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>84.619342839</v>
+      </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
@@ -5138,21 +5124,21 @@
         </is>
       </c>
       <c r="CD12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>PLEKHD1</t>
+          <t>NFE2L1</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>UPF0639</t>
+          <t>LCR-F1|NRF-1|NRF1|TCF11</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>NM_001161498.2</t>
+          <t>NM_003204.3</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
@@ -5162,10 +5148,14 @@
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>20148</t>
-        </is>
-      </c>
-      <c r="CJ12" t="inlineStr"/>
+          <t>7781</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>163260</t>
+        </is>
+      </c>
       <c r="CK12" t="n">
         <v>0</v>
       </c>
@@ -5178,7 +5168,7 @@
       </c>
       <c r="CQ12" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR12" t="b">
@@ -5198,22 +5188,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sample_9091</t>
+          <t>Sample_21206</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sample_9092</t>
+          <t>Sample_21207</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sample_9093</t>
+          <t>Sample_21208</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>統合失調症</t>
+          <t>特異顔貌_先天性心疾患,特異顔貌_先天性心疾患</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -5221,7 +5211,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5-141005760-C-A</t>
+          <t>1-155012960-G-A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -5232,15 +5222,15 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>141005760</v>
+        <v>155012960</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -5250,7 +5240,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>HDAC3</t>
+          <t>DCST1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5260,73 +5250,73 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>4854</t>
+          <t>26539</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>ENST00000305264</t>
+          <t>ENST00000295542</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>c.920+1G&gt;T</t>
+          <t>c.392-1G&gt;A</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>splice_donor_variant</t>
+          <t>splice_acceptor_variant</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>11/14</t>
+          <t>5/16</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD13" t="n">
@@ -5339,118 +5329,118 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>-0.454</t>
+          <t>-0.947</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>8.504</t>
+          <t>8.750</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>8.050</t>
+          <t>7.803</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>ENSG00000228737.3_11</t>
+          <t>ENSG00000163357.11_13</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>-8:0.0</t>
+          <t>2:0.8399999737739563</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>26:-0.0</t>
+          <t>1:-0.8799999952316284</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>Warnings:,ENSG00000171720.10_12</t>
+          <t>Warnings:</t>
         </is>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>0.8799999952316284</v>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>ENST00000305264.8_6</t>
+          <t>ENST00000295542.6_11</t>
         </is>
       </c>
       <c r="AO13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>Intronic</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>Intronic</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>Intronic</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>[Error] Invalid_Value</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>non_exonic_variant</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>Intronic</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Acceptor_int</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>No_ClinVar_info_found</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>No_ClinVar_info_found</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>['No_ClinVar_info_found']</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>{'strand': '+', 'eStart': 155012961, 'eEnd': 155013100, 'curt_Int': 5, 'curt_IntStart': 155012008, 'curt_IntEnd': 155012960, 'prev_Ex': 5, 'prev_ExStart': 155011879, 'prev_ExEnd': 155012007, 'next_Ex': 6, 'next_ExStart': 155012961, 'next_ExEnd': 155013100}</t>
+        </is>
+      </c>
+      <c r="BB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="b">
         <v>1</v>
       </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>Intronic</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>Intronic</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>Intronic</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>[Error] Invalid_Value</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>non_exonic_variant</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>Intronic</t>
-        </is>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>Donor_int</t>
-        </is>
-      </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>No_ClinVar_info_found</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>No_ClinVar_info_found</t>
-        </is>
-      </c>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>['No_ClinVar_info_found']</t>
-        </is>
-      </c>
-      <c r="BA13" t="inlineStr">
-        <is>
-          <t>{'strand': '-', 'eStart': 141005761, 'eEnd': 141005850, 'curt_Ex': 11, 'curt_ExStart': 141005761, 'curt_ExEnd': 141005850, 'prev_Ex': 10, 'prev_ExStart': 141007460, 'prev_ExEnd': 141007524, 'next_Ex': 12, 'next_ExStart': 141005580, 'next_ExEnd': 141005638}</t>
-        </is>
-      </c>
-      <c r="BB13" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="b">
-        <v>0</v>
-      </c>
       <c r="BD13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" t="b">
         <v>1</v>
@@ -5463,31 +5453,31 @@
           <t>One exon skipping</t>
         </is>
       </c>
-      <c r="BH13" t="inlineStr"/>
+      <c r="BH13" t="n">
+        <v>1</v>
+      </c>
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="BM13" t="n">
-        <v>1284</v>
+        <v>2118</v>
       </c>
       <c r="BN13" t="b">
         <v>0</v>
       </c>
-      <c r="BO13" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO13" t="b">
+        <v>0</v>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>Exonic (Non-Canonical)</t>
+          <t>Possibly_NMD</t>
         </is>
       </c>
       <c r="BQ13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR13" t="b">
         <v>0</v>
@@ -5499,24 +5489,30 @@
         <v>0</v>
       </c>
       <c r="BU13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>5 141005761 141005850</t>
-        </is>
-      </c>
-      <c r="BX13" t="inlineStr"/>
+          <t>1 155012961 155013100</t>
+        </is>
+      </c>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>1 155012961 155012962</t>
+        </is>
+      </c>
       <c r="BY13" t="n">
-        <v>89.923269093</v>
-      </c>
-      <c r="BZ13" t="inlineStr"/>
+        <v>80.887085959</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>59.676058842</v>
+      </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
@@ -5534,17 +5530,17 @@
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>HDAC3</t>
+          <t>DCST1</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>HD3|KDAC3|RPD3|RPD3-2</t>
+          <t>SNKY|SPE49</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>NM_003883.4</t>
+          <t>NM_152494.4</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
@@ -5554,14 +5550,10 @@
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>4854</t>
-        </is>
-      </c>
-      <c r="CJ13" t="inlineStr">
-        <is>
-          <t>605166</t>
-        </is>
-      </c>
+          <t>26539</t>
+        </is>
+      </c>
+      <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="n">
         <v>0</v>
       </c>
@@ -5574,7 +5566,7 @@
       </c>
       <c r="CQ13" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR13" t="b">
@@ -5594,22 +5586,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sample_21206</t>
+          <t>Sample_21156</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sample_21207</t>
+          <t>Sample_21157</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sample_21208</t>
+          <t>Sample_21158</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>特異顔貌_先天性心疾患,特異顔貌_先天性心疾患</t>
+          <t xml:space="preserve">Epilepsy ,Epilepsy </t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -5617,7 +5609,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1-155012960-G-A</t>
+          <t>1-168211737-A-C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -5632,21 +5624,21 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>155012960</v>
+        <v>168211737</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>DCST1</t>
+          <t>SFT2D2</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5656,17 +5648,17 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>26539</t>
+          <t>25140</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>ENST00000295542</t>
+          <t>ENST00000271375</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>c.392-1G&gt;A</t>
+          <t>c.444-2A&gt;C</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5677,7 +5669,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>5/16</t>
+          <t>7/7</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -5687,7 +5679,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -5702,27 +5694,27 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>225</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>570</t>
         </is>
       </c>
       <c r="AD14" t="n">
@@ -5735,32 +5727,32 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>-0.947</t>
+          <t>3.547</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>8.750</t>
+          <t>8.042</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>7.803</t>
+          <t>11.590</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>ENSG00000163357.11_13</t>
+          <t>ENSG00000213064.10_7</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2:0.8399999737739563</t>
+          <t>15:0.05000000074505806</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>1:-0.8799999952316284</t>
+          <t>2:-0.8500000238418579</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -5769,15 +5761,15 @@
         </is>
       </c>
       <c r="AM14" t="n">
-        <v>0.8799999952316284</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>ENST00000295542.6_11</t>
+          <t>ENST00000271375.7_3</t>
         </is>
       </c>
       <c r="AO14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -5836,7 +5828,7 @@
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>{'strand': '+', 'eStart': 155012961, 'eEnd': 155013100, 'curt_Int': 5, 'curt_IntStart': 155012008, 'curt_IntEnd': 155012960, 'prev_Ex': 5, 'prev_ExStart': 155011879, 'prev_ExEnd': 155012007, 'next_Ex': 6, 'next_ExStart': 155012961, 'next_ExEnd': 155013100}</t>
+          <t>{'strand': '+', 'eStart': 168211739, 'eEnd': 168222259, 'curt_Int': 7, 'curt_IntStart': 168208399, 'curt_IntEnd': 168211738, 'prev_Ex': 7, 'prev_ExStart': 168208369, 'prev_ExEnd': 168208398, 'next_Ex': 8, 'next_ExStart': 168211739, 'next_ExEnd': 168222259}</t>
         </is>
       </c>
       <c r="BB14" t="b">
@@ -5849,43 +5841,35 @@
         <v>1</v>
       </c>
       <c r="BE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="b">
         <v>0</v>
       </c>
-      <c r="BG14" t="inlineStr">
-        <is>
-          <t>One exon skipping</t>
-        </is>
-      </c>
+      <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="n">
-        <v>140</v>
-      </c>
+      <c r="BL14" t="inlineStr"/>
       <c r="BM14" t="n">
-        <v>2118</v>
+        <v>480</v>
       </c>
       <c r="BN14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="BO14" t="b">
+        <v>0</v>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>Possibly_NMD</t>
+          <t>Escape_NMD</t>
         </is>
       </c>
       <c r="BQ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="b">
         <v>0</v>
@@ -5897,30 +5881,24 @@
         <v>0</v>
       </c>
       <c r="BU14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW14" t="inlineStr">
-        <is>
-          <t>1 155012961 155013100</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BW14" t="inlineStr"/>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>1 155012961 155012962</t>
-        </is>
-      </c>
-      <c r="BY14" t="n">
-        <v>80.887085959</v>
-      </c>
+          <t>1 168211739 168211892</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="n">
-        <v>59.676058842</v>
+        <v>56.218302121</v>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
@@ -5934,33 +5912,13 @@
         </is>
       </c>
       <c r="CD14" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE14" t="inlineStr">
-        <is>
-          <t>DCST1</t>
-        </is>
-      </c>
-      <c r="CF14" t="inlineStr">
-        <is>
-          <t>SNKY|SPE49</t>
-        </is>
-      </c>
-      <c r="CG14" t="inlineStr">
-        <is>
-          <t>NM_152494.4</t>
-        </is>
-      </c>
-      <c r="CH14" t="inlineStr">
-        <is>
-          <t>UNK</t>
-        </is>
-      </c>
-      <c r="CI14" t="inlineStr">
-        <is>
-          <t>26539</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="n">
         <v>0</v>
@@ -5974,7 +5932,7 @@
       </c>
       <c r="CQ14" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR14" t="b">
@@ -5994,22 +5952,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sample_12988</t>
+          <t>Sample_9091</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sample_12990</t>
+          <t>Sample_9092</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sample_12991</t>
+          <t>Sample_9093</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Autism+三角頭蓋</t>
+          <t>統合失調症</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -6017,7 +5975,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>17-46134392-A-C</t>
+          <t>5-141005760-C-A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -6028,25 +5986,25 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>46134392</v>
+        <v>141005760</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>NFE2L1</t>
+          <t>HDAC3</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -6056,73 +6014,73 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>7781</t>
+          <t>4854</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>ENST00000362042</t>
+          <t>ENST00000305264</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>c.724-2A&gt;C</t>
+          <t>c.920+1G&gt;T</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>splice_acceptor_variant</t>
+          <t>splice_donor_variant</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>3/5</t>
+          <t>11/14</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>-1880</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD15" t="n">
@@ -6135,49 +6093,49 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>-1.136</t>
+          <t>-0.454</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>8.042</t>
+          <t>8.504</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>6.906</t>
+          <t>8.050</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>ENSG00000082641.16_16</t>
+          <t>ENSG00000228737.3_11</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>10:0.11999999731779099</t>
+          <t>-8:0.0</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>2:-0.8399999737739563</t>
+          <t>26:-0.0</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>Warnings:</t>
+          <t>Warnings:,ENSG00000171720.10_12</t>
         </is>
       </c>
       <c r="AM15" t="n">
-        <v>0.8399999737739563</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>ENST00000362042.8_6</t>
+          <t>ENST00000305264.8_6</t>
         </is>
       </c>
       <c r="AO15" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
@@ -6216,7 +6174,7 @@
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Acceptor_int</t>
+          <t>Donor_int</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
@@ -6236,17 +6194,17 @@
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>{'strand': '+', 'eStart': 46134394, 'eEnd': 46134483, 'curt_Int': 3, 'curt_IntStart': 46133961, 'curt_IntEnd': 46134393, 'prev_Ex': 3, 'prev_ExStart': 46133748, 'prev_ExEnd': 46133960, 'next_Ex': 4, 'next_ExStart': 46134394, 'next_ExEnd': 46134483}</t>
+          <t>{'strand': '-', 'eStart': 141005761, 'eEnd': 141005850, 'curt_Ex': 11, 'curt_ExStart': 141005761, 'curt_ExEnd': 141005850, 'prev_Ex': 10, 'prev_ExStart': 141007460, 'prev_ExEnd': 141007524, 'next_Ex': 12, 'next_ExStart': 141005580, 'next_ExEnd': 141005638}</t>
         </is>
       </c>
       <c r="BB15" t="b">
         <v>0</v>
       </c>
       <c r="BC15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" t="b">
         <v>1</v>
@@ -6259,9 +6217,7 @@
           <t>One exon skipping</t>
         </is>
       </c>
-      <c r="BH15" t="n">
-        <v>8</v>
-      </c>
+      <c r="BH15" t="inlineStr"/>
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr"/>
@@ -6269,23 +6225,21 @@
         <v>90</v>
       </c>
       <c r="BM15" t="n">
-        <v>2316</v>
+        <v>1284</v>
       </c>
       <c r="BN15" t="b">
         <v>0</v>
       </c>
-      <c r="BO15" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO15" t="b">
+        <v>0</v>
       </c>
       <c r="BP15" t="inlineStr">
         <is>
-          <t>Possibly_NMD</t>
+          <t>Exonic (Non-Canonical)</t>
         </is>
       </c>
       <c r="BQ15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="b">
         <v>0</v>
@@ -6300,27 +6254,21 @@
         <v>0</v>
       </c>
       <c r="BV15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW15" t="inlineStr">
         <is>
-          <t>17 46134394 46134483</t>
-        </is>
-      </c>
-      <c r="BX15" t="inlineStr">
-        <is>
-          <t>17 46134394 46134402</t>
-        </is>
-      </c>
+          <t>5 141005761 141005850</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr"/>
       <c r="BY15" t="n">
-        <v>84.619342839</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>84.619342839</v>
-      </c>
+        <v>89.923269093</v>
+      </c>
+      <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="CB15" t="inlineStr">
@@ -6334,21 +6282,21 @@
         </is>
       </c>
       <c r="CD15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CE15" t="inlineStr">
         <is>
-          <t>NFE2L1</t>
+          <t>HDAC3</t>
         </is>
       </c>
       <c r="CF15" t="inlineStr">
         <is>
-          <t>LCR-F1|NRF-1|NRF1|TCF11</t>
+          <t>HD3|KDAC3|RPD3|RPD3-2</t>
         </is>
       </c>
       <c r="CG15" t="inlineStr">
         <is>
-          <t>NM_003204.3</t>
+          <t>NM_003883.4</t>
         </is>
       </c>
       <c r="CH15" t="inlineStr">
@@ -6358,12 +6306,12 @@
       </c>
       <c r="CI15" t="inlineStr">
         <is>
-          <t>7781</t>
+          <t>4854</t>
         </is>
       </c>
       <c r="CJ15" t="inlineStr">
         <is>
-          <t>163260</t>
+          <t>605166</t>
         </is>
       </c>
       <c r="CK15" t="n">
@@ -6378,7 +6326,7 @@
       </c>
       <c r="CQ15" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR15" t="b">
@@ -6398,22 +6346,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sample_21156</t>
+          <t>Sample_11444</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sample_21157</t>
+          <t>Sample_12352</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sample_21158</t>
+          <t>Sample_12353</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Epilepsy ,Epilepsy </t>
+          <t>Aicardi症候群,Aicardi症候群</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -6421,7 +6369,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1-168211737-A-C</t>
+          <t>3-128853674-C-T</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -6432,25 +6380,25 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>168211737</v>
+        <v>128853674</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>SFT2D2</t>
+          <t>ISY1</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -6460,73 +6408,73 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>25140</t>
+          <t>29201</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>ENST00000271375</t>
+          <t>ENST00000273541</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>c.444-2A&gt;C</t>
+          <t>c.607+1G&gt;A</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>splice_acceptor_variant</t>
+          <t>splice_donor_variant</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>7/7</t>
+          <t>9/11</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>-67</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD16" t="n">
@@ -6539,49 +6487,49 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>3.547</t>
+          <t>-0.884</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>8.042</t>
+          <t>8.182</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>11.590</t>
+          <t>7.298</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>ENSG00000213064.10_7</t>
+          <t>ENSG00000261796.1_10</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>15:0.05000000074505806</t>
+          <t>-3:0.30000001192092896</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>2:-0.8500000238418579</t>
+          <t>1:-0.8600000143051147</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>Warnings:</t>
+          <t>Warnings:,ENSG00000240682.10_12</t>
         </is>
       </c>
       <c r="AM16" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>ENST00000271375.7_3</t>
+          <t>ENST00000273541.12_4</t>
         </is>
       </c>
       <c r="AO16" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
@@ -6620,7 +6568,7 @@
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Acceptor_int</t>
+          <t>Donor_int</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
@@ -6640,46 +6588,48 @@
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>{'strand': '+', 'eStart': 168211739, 'eEnd': 168222259, 'curt_Int': 7, 'curt_IntStart': 168208399, 'curt_IntEnd': 168211738, 'prev_Ex': 7, 'prev_ExStart': 168208369, 'prev_ExEnd': 168208398, 'next_Ex': 8, 'next_ExStart': 168211739, 'next_ExEnd': 168222259}</t>
+          <t>{'strand': '-', 'eStart': 128853675, 'eEnd': 128853797, 'curt_Ex': 9, 'curt_ExStart': 128853675, 'curt_ExEnd': 128853797, 'prev_Ex': 8, 'prev_ExStart': 128855974, 'prev_ExEnd': 128856039, 'next_Ex': 10, 'next_ExStart': 128852917, 'next_ExEnd': 128853038}</t>
         </is>
       </c>
       <c r="BB16" t="b">
         <v>0</v>
       </c>
       <c r="BC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="b">
         <v>1</v>
       </c>
-      <c r="BD16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE16" t="b">
-        <v>0</v>
-      </c>
       <c r="BF16" t="b">
         <v>0</v>
       </c>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="n">
-        <v>153</v>
-      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>One exon skipping</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr"/>
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
+      <c r="BL16" t="n">
+        <v>123</v>
+      </c>
       <c r="BM16" t="n">
-        <v>480</v>
+        <v>921</v>
       </c>
       <c r="BN16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="BO16" t="b">
+        <v>0</v>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
-          <t>Escape_NMD</t>
+          <t>Exonic (Non-Canonical)</t>
         </is>
       </c>
       <c r="BQ16" t="b">
@@ -6700,19 +6650,19 @@
       <c r="BV16" t="b">
         <v>0</v>
       </c>
-      <c r="BW16" t="inlineStr"/>
-      <c r="BX16" t="inlineStr">
-        <is>
-          <t>1 168211739 168211892</t>
-        </is>
-      </c>
-      <c r="BY16" t="inlineStr"/>
-      <c r="BZ16" t="n">
-        <v>56.218302121</v>
-      </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>3 128853675 128853797</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="n">
+        <v>88.748639032</v>
+      </c>
+      <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="CB16" t="inlineStr">
@@ -6726,14 +6676,34 @@
         </is>
       </c>
       <c r="CD16" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE16" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>ISY1</t>
+        </is>
+      </c>
       <c r="CF16" t="inlineStr"/>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
-      <c r="CJ16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>NM_020701.4</t>
+        </is>
+      </c>
+      <c r="CH16" t="inlineStr">
+        <is>
+          <t>UNK</t>
+        </is>
+      </c>
+      <c r="CI16" t="inlineStr">
+        <is>
+          <t>29201</t>
+        </is>
+      </c>
+      <c r="CJ16" t="inlineStr">
+        <is>
+          <t>612764</t>
+        </is>
+      </c>
       <c r="CK16" t="n">
         <v>0</v>
       </c>
@@ -6746,7 +6716,7 @@
       </c>
       <c r="CQ16" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR16" t="b">
@@ -6766,22 +6736,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sample_11444</t>
+          <t>Sample_12291</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sample_12352</t>
+          <t>Sample_12292</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sample_12353</t>
+          <t>Sample_12293</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Aicardi症候群,Aicardi症候群</t>
+          <t>ASD</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -6789,7 +6759,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3-128853674-C-T</t>
+          <t>14-69988999-G-T</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -6800,15 +6770,15 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>128853674</v>
+        <v>69988999</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -6818,7 +6788,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>ISY1</t>
+          <t>PLEKHD1</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -6828,73 +6798,73 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>29201</t>
+          <t>20148</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>ENST00000273541</t>
+          <t>ENST00000322564</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>c.607+1G&gt;A</t>
+          <t>c.556-1G&gt;T</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>splice_donor_variant</t>
+          <t>splice_acceptor_variant</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>9/11</t>
+          <t>6/12</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>-67</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AD17" t="n">
@@ -6907,49 +6877,49 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>-0.884</t>
+          <t>1.088</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>8.182</t>
+          <t>8.598</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>7.298</t>
+          <t>9.686</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>ENSG00000261796.1_10</t>
+          <t>ENSG00000175985.10_7</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>-3:0.30000001192092896</t>
+          <t>4:0.25</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1:-0.8600000143051147</t>
+          <t>1:-0.8700000047683716</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>Warnings:,ENSG00000240682.10_12</t>
+          <t>Warnings:</t>
         </is>
       </c>
       <c r="AM17" t="n">
-        <v>0.8600000143051147</v>
+        <v>0.8700000047683716</v>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>ENST00000273541.12_4</t>
+          <t>ENST00000322564.9_3</t>
         </is>
       </c>
       <c r="AO17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
@@ -6988,7 +6958,7 @@
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Donor_int</t>
+          <t>Acceptor_int</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
@@ -7008,7 +6978,7 @@
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 128853675, 'eEnd': 128853797, 'curt_Ex': 9, 'curt_ExStart': 128853675, 'curt_ExEnd': 128853797, 'prev_Ex': 8, 'prev_ExStart': 128855974, 'prev_ExEnd': 128856039, 'next_Ex': 10, 'next_ExStart': 128852917, 'next_ExEnd': 128853038}</t>
+          <t>{'strand': '+', 'eStart': 69989000, 'eEnd': 69989094, 'curt_Int': 6, 'curt_IntStart': 69969597, 'curt_IntEnd': 69988999, 'prev_Ex': 6, 'prev_ExStart': 69969544, 'prev_ExEnd': 69969596, 'next_Ex': 7, 'next_ExStart': 69989000, 'next_ExEnd': 69989094}</t>
         </is>
       </c>
       <c r="BB17" t="b">
@@ -7036,22 +7006,20 @@
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="n">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="BM17" t="n">
-        <v>921</v>
+        <v>1518</v>
       </c>
       <c r="BN17" t="b">
         <v>0</v>
       </c>
-      <c r="BO17" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO17" t="b">
+        <v>0</v>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>Exonic (Non-Canonical)</t>
+          <t>Possibly_NMD</t>
         </is>
       </c>
       <c r="BQ17" t="b">
@@ -7067,24 +7035,24 @@
         <v>0</v>
       </c>
       <c r="BU17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>3 128853675 128853797</t>
+          <t>14 69989000 69989094</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr"/>
       <c r="BY17" t="n">
-        <v>88.748639032</v>
+        <v>66.912083251</v>
       </c>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
@@ -7102,13 +7070,17 @@
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>ISY1</t>
-        </is>
-      </c>
-      <c r="CF17" t="inlineStr"/>
+          <t>PLEKHD1</t>
+        </is>
+      </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>UPF0639</t>
+        </is>
+      </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>NM_020701.4</t>
+          <t>NM_001161498.2</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
@@ -7118,14 +7090,10 @@
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>29201</t>
-        </is>
-      </c>
-      <c r="CJ17" t="inlineStr">
-        <is>
-          <t>612764</t>
-        </is>
-      </c>
+          <t>20148</t>
+        </is>
+      </c>
+      <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="n">
         <v>0</v>
       </c>
@@ -7138,7 +7106,7 @@
       </c>
       <c r="CQ17" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR17" t="b">
@@ -7158,22 +7126,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sample_14452</t>
+          <t>Sample_4413</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sample_14453</t>
+          <t>Sample_5241</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sample_14454</t>
+          <t>Sample_5242</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lennox-Gastaut症候群,Lennox-Gastaut症候群</t>
+          <t>EOEE_unclassified</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -7181,7 +7149,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11-119230372-T-C</t>
+          <t>9-34618759-T-C</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7192,11 +7160,11 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>119230372</v>
+        <v>34618759</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -7210,7 +7178,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>USP2</t>
+          <t>DCTN3</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7220,17 +7188,17 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>12618</t>
+          <t>2713</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>ENST00000260187</t>
+          <t>ENST00000259632</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>c.826-2A&gt;G</t>
+          <t>c.97-2A&gt;G</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7241,7 +7209,7 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3/12</t>
+          <t>1/6</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -7251,7 +7219,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -7261,17 +7229,17 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-26</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7281,12 +7249,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>-642</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3417</t>
+          <t>-86</t>
         </is>
       </c>
       <c r="AD18" t="n">
@@ -7299,7 +7267,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>0.432</t>
+          <t>1.929</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -7309,35 +7277,35 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>8.387</t>
+          <t>9.884</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>ENSG00000245248.11_13</t>
+          <t>ENSG00000137100.16_10</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>-28:0.0</t>
+          <t>-23:0.05000000074505806</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>-2:-0.0</t>
+          <t>-2:-0.8600000143051147</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>Warnings:,ENSG00000036672.16_13</t>
+          <t>Warnings:</t>
         </is>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>ENST00000260187.7_8</t>
+          <t>ENST00000259632.12_8</t>
         </is>
       </c>
       <c r="AO18" t="n">
@@ -7400,42 +7368,44 @@
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 119230247, 'eEnd': 119230370, 'curt_Int': 3, 'curt_IntStart': 119230371, 'curt_IntEnd': 119230893, 'prev_Ex': 3, 'prev_ExStart': 119230894, 'prev_ExEnd': 119230944, 'next_Ex': 4, 'next_ExStart': 119230247, 'next_ExEnd': 119230370}</t>
+          <t>{'strand': '-', 'eStart': 34618673, 'eEnd': 34618757, 'curt_Int': 1, 'curt_IntStart': 34618758, 'curt_IntEnd': 34620365, 'prev_Ex': 1, 'prev_ExStart': 34620366, 'prev_ExEnd': 34620492, 'next_Ex': 2, 'next_ExStart': 34618673, 'next_ExEnd': 34618757}</t>
         </is>
       </c>
       <c r="BB18" t="b">
         <v>0</v>
       </c>
       <c r="BC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="b">
         <v>1</v>
       </c>
-      <c r="BD18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE18" t="b">
-        <v>0</v>
-      </c>
       <c r="BF18" t="b">
         <v>0</v>
       </c>
-      <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="n">
-        <v>24</v>
-      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>One exon skipping</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr"/>
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
+      <c r="BL18" t="n">
+        <v>85</v>
+      </c>
       <c r="BM18" t="n">
-        <v>1815</v>
+        <v>558</v>
       </c>
       <c r="BN18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="BO18" t="b">
+        <v>0</v>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
@@ -7455,24 +7425,24 @@
         <v>0</v>
       </c>
       <c r="BU18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="inlineStr"/>
-      <c r="BX18" t="inlineStr">
-        <is>
-          <t>11 119230346 119230370</t>
-        </is>
-      </c>
-      <c r="BY18" t="inlineStr"/>
-      <c r="BZ18" t="n">
-        <v>81.94791811</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="BW18" t="inlineStr">
+        <is>
+          <t>9 34618673 34618757</t>
+        </is>
+      </c>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="n">
+        <v>68.127342715</v>
+      </c>
+      <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
@@ -7488,36 +7458,12 @@
       <c r="CD18" t="n">
         <v>3</v>
       </c>
-      <c r="CE18" t="inlineStr">
-        <is>
-          <t>USP2</t>
-        </is>
-      </c>
-      <c r="CF18" t="inlineStr">
-        <is>
-          <t>UBP41|USP9</t>
-        </is>
-      </c>
-      <c r="CG18" t="inlineStr">
-        <is>
-          <t>NM_004205.5</t>
-        </is>
-      </c>
-      <c r="CH18" t="inlineStr">
-        <is>
-          <t>UNK</t>
-        </is>
-      </c>
-      <c r="CI18" t="inlineStr">
-        <is>
-          <t>12618</t>
-        </is>
-      </c>
-      <c r="CJ18" t="inlineStr">
-        <is>
-          <t>604725</t>
-        </is>
-      </c>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="n">
         <v>0</v>
       </c>
@@ -7530,7 +7476,7 @@
       </c>
       <c r="CQ18" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR18" t="b">
@@ -7824,10 +7770,8 @@
       <c r="BN19" t="b">
         <v>0</v>
       </c>
-      <c r="BO19" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO19" t="b">
+        <v>0</v>
       </c>
       <c r="BP19" t="inlineStr">
         <is>
@@ -7908,7 +7852,7 @@
       </c>
       <c r="CQ19" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR19" t="b">
@@ -7928,22 +7872,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sample_4413</t>
+          <t>Sample_21789</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sample_5241</t>
+          <t>Sample_21790</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sample_5242</t>
+          <t>Sample_21791</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EOEE_unclassified</t>
+          <t>早期乳児難治性てんかん,早期乳児難治性てんかん</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -7951,7 +7895,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9-34618759-T-C</t>
+          <t>8-99028891-G-A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7962,25 +7906,25 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>34618759</v>
+        <v>99028891</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>DCTN3</t>
+          <t>MATN2</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -7990,73 +7934,73 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2713</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>ENST00000259632</t>
+          <t>ENST00000520016</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>c.97-2A&gt;G</t>
+          <t>c.1696+1G&gt;A</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>splice_acceptor_variant</t>
+          <t>splice_donor_variant</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>1/6</t>
+          <t>10/17</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-1287</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-123</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>-86</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AD20" t="n">
@@ -8069,32 +8013,32 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>1.929</t>
+          <t>1.633</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>7.955</t>
+          <t>8.182</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>9.884</t>
+          <t>9.815</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>ENSG00000137100.16_10</t>
+          <t>ENSG00000132561.14_18</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>-23:0.05000000074505806</t>
+          <t>3:0.20000000298023224</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>-2:-0.8600000143051147</t>
+          <t>-1:-0.8600000143051147</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -8107,11 +8051,11 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>ENST00000259632.12_8</t>
+          <t>ENST00000520016.5_2</t>
         </is>
       </c>
       <c r="AO20" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
@@ -8150,7 +8094,7 @@
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Acceptor_int</t>
+          <t>Donor_int</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
@@ -8170,7 +8114,7 @@
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 34618673, 'eEnd': 34618757, 'curt_Int': 1, 'curt_IntStart': 34618758, 'curt_IntEnd': 34620365, 'prev_Ex': 1, 'prev_ExStart': 34620366, 'prev_ExEnd': 34620492, 'next_Ex': 2, 'next_ExStart': 34618673, 'next_ExEnd': 34618757}</t>
+          <t>{'strand': '+', 'eStart': 99028768, 'eEnd': 99028890, 'curt_Ex': 10, 'curt_ExStart': 99028768, 'curt_ExEnd': 99028890, 'prev_Ex': 9, 'prev_ExStart': 99019707, 'prev_ExEnd': 99019829, 'next_Ex': 11, 'next_ExStart': 99030222, 'next_ExEnd': 99030344}</t>
         </is>
       </c>
       <c r="BB20" t="b">
@@ -8198,22 +8142,20 @@
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="n">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="BM20" t="n">
-        <v>558</v>
+        <v>2868</v>
       </c>
       <c r="BN20" t="b">
         <v>0</v>
       </c>
-      <c r="BO20" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO20" t="b">
+        <v>0</v>
       </c>
       <c r="BP20" t="inlineStr">
         <is>
-          <t>Possibly_NMD</t>
+          <t>Exonic (Non-Canonical)</t>
         </is>
       </c>
       <c r="BQ20" t="b">
@@ -8229,24 +8171,24 @@
         <v>0</v>
       </c>
       <c r="BU20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW20" t="inlineStr">
         <is>
-          <t>9 34618673 34618757</t>
+          <t>8 99028768 99028890</t>
         </is>
       </c>
       <c r="BX20" t="inlineStr"/>
       <c r="BY20" t="n">
-        <v>68.127342715</v>
+        <v>77.331821095</v>
       </c>
       <c r="BZ20" t="inlineStr"/>
       <c r="CA20" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="CB20" t="inlineStr">
@@ -8262,12 +8204,32 @@
       <c r="CD20" t="n">
         <v>3</v>
       </c>
-      <c r="CE20" t="inlineStr"/>
+      <c r="CE20" t="inlineStr">
+        <is>
+          <t>MATN2</t>
+        </is>
+      </c>
       <c r="CF20" t="inlineStr"/>
-      <c r="CG20" t="inlineStr"/>
-      <c r="CH20" t="inlineStr"/>
-      <c r="CI20" t="inlineStr"/>
-      <c r="CJ20" t="inlineStr"/>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>NM_002380.5</t>
+        </is>
+      </c>
+      <c r="CH20" t="inlineStr">
+        <is>
+          <t>UNK</t>
+        </is>
+      </c>
+      <c r="CI20" t="inlineStr">
+        <is>
+          <t>6908</t>
+        </is>
+      </c>
+      <c r="CJ20" t="inlineStr">
+        <is>
+          <t>602108</t>
+        </is>
+      </c>
       <c r="CK20" t="n">
         <v>0</v>
       </c>
@@ -8280,7 +8242,7 @@
       </c>
       <c r="CQ20" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR20" t="b">
@@ -8300,22 +8262,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sample_21789</t>
+          <t>Sample_14452</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sample_21790</t>
+          <t>Sample_14453</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sample_21791</t>
+          <t>Sample_14454</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>早期乳児難治性てんかん,早期乳児難治性てんかん</t>
+          <t>Lennox-Gastaut症候群,Lennox-Gastaut症候群</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -8323,7 +8285,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8-99028891-G-A</t>
+          <t>11-119230372-T-C</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8334,25 +8296,25 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>99028891</v>
+        <v>119230372</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>MATN2</t>
+          <t>USP2</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -8362,73 +8324,73 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>12618</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>ENST00000520016</t>
+          <t>ENST00000260187</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>c.1696+1G&gt;A</t>
+          <t>c.826-2A&gt;G</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>splice_donor_variant</t>
+          <t>splice_acceptor_variant</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>10/17</t>
+          <t>3/12</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>-1287</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-123</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-642</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="AD21" t="n">
@@ -8441,151 +8403,145 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>1.633</t>
+          <t>0.432</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>8.182</t>
+          <t>7.955</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>9.815</t>
+          <t>8.387</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>ENSG00000132561.14_18</t>
+          <t>ENSG00000245248.11_13</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>3:0.20000000298023224</t>
+          <t>-28:0.0</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>-1:-0.8600000143051147</t>
+          <t>-2:-0.0</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>Warnings:</t>
+          <t>Warnings:,ENSG00000036672.16_13</t>
         </is>
       </c>
       <c r="AM21" t="n">
-        <v>0.8600000143051147</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>ENST00000520016.5_2</t>
+          <t>ENST00000260187.7_8</t>
         </is>
       </c>
       <c r="AO21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>Intronic</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>Intronic</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>Intronic</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>[Error] Invalid_Value</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>non_exonic_variant</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>Intronic</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Acceptor_int</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>No_ClinVar_info_found</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>No_ClinVar_info_found</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>['No_ClinVar_info_found']</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>{'strand': '-', 'eStart': 119230247, 'eEnd': 119230370, 'curt_Int': 3, 'curt_IntStart': 119230371, 'curt_IntEnd': 119230893, 'prev_Ex': 3, 'prev_ExStart': 119230894, 'prev_ExEnd': 119230944, 'next_Ex': 4, 'next_ExStart': 119230247, 'next_ExEnd': 119230370}</t>
+        </is>
+      </c>
+      <c r="BB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="b">
         <v>1</v>
       </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>Intronic</t>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>Intronic</t>
-        </is>
-      </c>
-      <c r="AS21" t="inlineStr">
-        <is>
-          <t>Intronic</t>
-        </is>
-      </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>[Error] Invalid_Value</t>
-        </is>
-      </c>
-      <c r="AU21" t="inlineStr">
-        <is>
-          <t>non_exonic_variant</t>
-        </is>
-      </c>
-      <c r="AV21" t="inlineStr">
-        <is>
-          <t>Intronic</t>
-        </is>
-      </c>
-      <c r="AW21" t="inlineStr">
-        <is>
-          <t>Donor_int</t>
-        </is>
-      </c>
-      <c r="AX21" t="inlineStr">
-        <is>
-          <t>No_ClinVar_info_found</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>No_ClinVar_info_found</t>
-        </is>
-      </c>
-      <c r="AZ21" t="inlineStr">
-        <is>
-          <t>['No_ClinVar_info_found']</t>
-        </is>
-      </c>
-      <c r="BA21" t="inlineStr">
-        <is>
-          <t>{'strand': '+', 'eStart': 99028768, 'eEnd': 99028890, 'curt_Ex': 10, 'curt_ExStart': 99028768, 'curt_ExEnd': 99028890, 'prev_Ex': 9, 'prev_ExStart': 99019707, 'prev_ExEnd': 99019829, 'next_Ex': 11, 'next_ExStart': 99030222, 'next_ExEnd': 99030344}</t>
-        </is>
-      </c>
-      <c r="BB21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="b">
-        <v>0</v>
-      </c>
       <c r="BD21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="b">
         <v>0</v>
       </c>
-      <c r="BG21" t="inlineStr">
-        <is>
-          <t>One exon skipping</t>
-        </is>
-      </c>
-      <c r="BH21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="n">
+        <v>24</v>
+      </c>
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="n">
-        <v>123</v>
-      </c>
+      <c r="BL21" t="inlineStr"/>
       <c r="BM21" t="n">
-        <v>2868</v>
+        <v>1815</v>
       </c>
       <c r="BN21" t="b">
         <v>0</v>
       </c>
-      <c r="BO21" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO21" t="b">
+        <v>0</v>
       </c>
       <c r="BP21" t="inlineStr">
         <is>
-          <t>Exonic (Non-Canonical)</t>
+          <t>Possibly_NMD</t>
         </is>
       </c>
       <c r="BQ21" t="b">
@@ -8606,16 +8562,16 @@
       <c r="BV21" t="b">
         <v>0</v>
       </c>
-      <c r="BW21" t="inlineStr">
-        <is>
-          <t>8 99028768 99028890</t>
-        </is>
-      </c>
-      <c r="BX21" t="inlineStr"/>
-      <c r="BY21" t="n">
-        <v>77.331821095</v>
-      </c>
-      <c r="BZ21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr"/>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>11 119230346 119230370</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="n">
+        <v>81.94791811</v>
+      </c>
       <c r="CA21" t="inlineStr">
         <is>
           <t>s9</t>
@@ -8636,13 +8592,17 @@
       </c>
       <c r="CE21" t="inlineStr">
         <is>
-          <t>MATN2</t>
-        </is>
-      </c>
-      <c r="CF21" t="inlineStr"/>
+          <t>USP2</t>
+        </is>
+      </c>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>UBP41|USP9</t>
+        </is>
+      </c>
       <c r="CG21" t="inlineStr">
         <is>
-          <t>NM_002380.5</t>
+          <t>NM_004205.5</t>
         </is>
       </c>
       <c r="CH21" t="inlineStr">
@@ -8652,12 +8612,12 @@
       </c>
       <c r="CI21" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>12618</t>
         </is>
       </c>
       <c r="CJ21" t="inlineStr">
         <is>
-          <t>602108</t>
+          <t>604725</t>
         </is>
       </c>
       <c r="CK21" t="n">
@@ -8672,7 +8632,7 @@
       </c>
       <c r="CQ21" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR21" t="b">
